--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_41_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_41_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -783,7 +1302,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="105.38988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="105.38988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="61.389887640449444"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-05-17T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1428989</v>
       </c>
@@ -1102,680 +1621,206 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>36962</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3589953</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="0" t="n">
-        <v>1428989</v>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE F/B NO.1 HOLE 2"X2" AT 2 PLS &amp; LEFT SIDE F/B NO.2 HOLE 2"X2"</t>
         </is>
       </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>36962</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3589953</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="0" t="n">
-        <v>1428989</v>
-      </c>
-      <c r="W8" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SITE PANEL NO.3 PUSH IN 30"X15"</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>36962</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3589953</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="0" t="n">
-        <v>1428989</v>
-      </c>
-      <c r="W9" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL SCRACHED &amp; RUSTED</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>36962</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3589953</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M10" s="4" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="0" t="n">
-        <v>1428989</v>
-      </c>
-      <c r="W10" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y10" s="0" t="inlineStr">
-        <is>
           <t>LEFT SIDE PANEL NO.1 HOLE 2"X2"&amp; LEFT SIDE PANEL NO.2 PIN HOLE 1"X1" 2 PLS</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>36962</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3589953</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1428989</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>LEFT SIDE PANEL NO.3 HOLE 3"X2" 3 PLS</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>36962</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3589953</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="d">
-        <v>2018-05-17T00:00:00</v>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="0" t="n">
-        <v>1428989</v>
-      </c>
-      <c r="W12" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y12" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR LOCK BAR BENT 1 PES</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>36963</v>
@@ -1887,7 +1932,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>36965</v>
@@ -1998,344 +2043,107 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>36965</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3617931</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2018-05-18T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1429482</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>L/S PANEL 3 HOLE 1"X1"</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>36965</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3617931</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="d">
-        <v>2018-05-18T00:00:00</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="0" t="n">
-        <v>1429482</v>
-      </c>
-      <c r="W16" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y16" s="0" t="inlineStr">
-        <is>
           <t>F/B BROKEN HOLE 60"X48" &amp; HOLE 6"X6" AT 4 PLS &amp; BROKEN DOWN 15"X12"</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>36965</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3617931</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="d">
-        <v>2018-05-18T00:00:00</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="0" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="0" t="n">
-        <v>1429482</v>
-      </c>
-      <c r="W17" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BORD DIRTY BY SCRAP &amp; SCRATCH.</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>36968</v>
@@ -2446,568 +2254,173 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>36968</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>CLHU2140298</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="d">
-        <v>2018-05-20T00:00:00</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="0" t="n">
-        <v>1430421</v>
-      </c>
-      <c r="W19" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
-        <is>
           <t>BOTH SIDE F/B HOLE 10"X5,15"X10" &amp; 15"X15" AT 3PLS</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>36968</v>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>CLHU2140298</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="d">
-        <v>2018-05-20T00:00:00</v>
-      </c>
-      <c r="N20" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="0"/>
       <c r="O20" s="0"/>
-      <c r="P20" s="0" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="0" t="n">
-        <v>1430421</v>
-      </c>
-      <c r="W20" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y20" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL SCRATCH BADLY</t>
         </is>
       </c>
-      <c r="Z20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" s="0"/>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>36968</v>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>CLHU2140298</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="d">
-        <v>2018-05-20T00:00:00</v>
-      </c>
-      <c r="N21" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="0" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="0" t="n">
-        <v>1430421</v>
-      </c>
-      <c r="W21" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y21" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL NO.3 CUT 15"X10 &amp; PUSH IN-PUSH OUT AT V/P</t>
         </is>
       </c>
-      <c r="Z21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>36968</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>CLHU2140298</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="d">
-        <v>2018-05-20T00:00:00</v>
-      </c>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="0" t="n">
-        <v>1430421</v>
-      </c>
-      <c r="W22" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR BOTTOM GASKET LOSE 20"</t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>36968</v>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>CLHU2140298</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G23" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H23" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I23" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L23" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M23" s="4" t="d">
-        <v>2018-05-20T00:00:00</v>
-      </c>
-      <c r="N23" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="0"/>
       <c r="O23" s="0"/>
-      <c r="P23" s="0" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="0" t="n">
-        <v>1430421</v>
-      </c>
-      <c r="W23" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
       <c r="X23" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y23" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL DENT AT V/P</t>
         </is>
       </c>
-      <c r="Z23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>37061</v>
@@ -3118,120 +2531,41 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>37061</v>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>KKTU7045653</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L25" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="d">
-        <v>2018-07-08T00:00:00</v>
-      </c>
-      <c r="N25" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="0" t="n">
-        <v>148</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="0" t="n">
-        <v>1450267</v>
-      </c>
-      <c r="W25" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
-        <is>
           <t>INERNAL PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>37869</v>
@@ -3319,7 +2653,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>36942</v>
@@ -3431,7 +2765,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>36959</v>
@@ -3542,340 +2876,103 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>36959</v>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>PCIU3970195</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G29" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L29" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="d">
-        <v>2018-05-16T00:00:00</v>
-      </c>
-      <c r="N29" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
       <c r="O29" s="0"/>
-      <c r="P29" s="0" t="n">
-        <v>201</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="0" t="n">
-        <v>1428672</v>
-      </c>
-      <c r="W29" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y29" s="0" t="inlineStr">
-        <is>
           <t>INTERNAL PANEL DIRTY &amp; RUSTED &amp; CORROSION</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>36959</v>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>PCIU3970195</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L30" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="d">
-        <v>2018-05-16T00:00:00</v>
-      </c>
-      <c r="N30" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="0"/>
-      <c r="P30" s="0" t="n">
-        <v>201</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="0" t="n">
-        <v>1428672</v>
-      </c>
-      <c r="W30" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL 2 DENT 30"X35"</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>36959</v>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>PCIU3970195</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L31" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="d">
-        <v>2018-05-16T00:00:00</v>
-      </c>
-      <c r="N31" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
       <c r="O31" s="0"/>
-      <c r="P31" s="0" t="n">
-        <v>201</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="0" t="n">
-        <v>1428672</v>
-      </c>
-      <c r="W31" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y31" s="0" t="inlineStr">
-        <is>
           <t>LEFT SIDE PANEL 4 DENT 30"X20"</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_41_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_41_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="284.68988764044946" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="105.38988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="27.28988764044944"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="61.389887640449444"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,202 +1621,76 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE F/B NO.1 HOLE 2"X2" AT 2 PLS &amp; LEFT SIDE F/B NO.2 HOLE 2"X2"</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "RIGHT SIDE F/B NO.1 HOLE 2\"X2\" AT 2 PLS &amp; LEFT SIDE F/B NO.2 HOLE 2\"X2\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SITE PANEL NO.3 PUSH IN 30"X15"</t>
-        </is>
-      </c>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SITE PANEL NO.3 PUSH IN 30\"X15\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL SCRACHED &amp; RUSTED</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL SCRACHED &amp; RUSTED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>LEFT SIDE PANEL NO.1 HOLE 2"X2"&amp; LEFT SIDE PANEL NO.2 PIN HOLE 1"X1" 2 PLS</t>
-        </is>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL NO.1 HOLE 2\"X2\"&amp; LEFT SIDE PANEL NO.2 PIN HOLE 1\"X1\" 2 PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>LEFT SIDE PANEL NO.3 HOLE 3"X2" 3 PLS</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL NO.3 HOLE 3\"X2\" 3 PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR LOCK BAR BENT 1 PES</t>
-        </is>
-      </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCK BAR BENT 1 PES", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -2043,103 +1917,40 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>L/S PANEL 3 HOLE 1"X1"</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "L/S PANEL 3 HOLE 1\"X1\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0" t="inlineStr">
-        <is>
-          <t>F/B BROKEN HOLE 60"X48" &amp; HOLE 6"X6" AT 4 PLS &amp; BROKEN DOWN 15"X12"</t>
-        </is>
-      </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BROKEN HOLE 60\"X48\" &amp; HOLE 6\"X6\" AT 4 PLS &amp; BROKEN DOWN 15\"X12\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BORD DIRTY BY SCRAP &amp; SCRATCH.</t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BORD DIRTY BY SCRAP &amp; SCRATCH.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -2254,169 +2065,64 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0" t="inlineStr">
-        <is>
-          <t>BOTH SIDE F/B HOLE 10"X5,15"X10" &amp; 15"X15" AT 3PLS</t>
-        </is>
-      </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "BOTH SIDE F/B HOLE 10\"X5,15\"X10\" &amp; 15\"X15\" AT 3PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL SCRATCH BADLY</t>
-        </is>
-      </c>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL SCRATCH BADLY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL NO.3 CUT 15"X10 &amp; PUSH IN-PUSH OUT AT V/P</t>
-        </is>
-      </c>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL NO.3 CUT 15\"X10 &amp; PUSH IN-PUSH OUT AT V/P", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR BOTTOM GASKET LOSE 20"</t>
-        </is>
-      </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET LOSE 20\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL DENT AT V/P</t>
-        </is>
-      </c>
-      <c r="Y23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL DENT AT V/P", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
@@ -2531,37 +2237,16 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0" t="inlineStr">
-        <is>
-          <t>INERNAL PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INERNAL PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
@@ -2876,103 +2561,40 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY &amp; RUSTED &amp; CORROSION</t>
-        </is>
-      </c>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; RUSTED &amp; CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL 2 DENT 30"X35"</t>
-        </is>
-      </c>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL 2 DENT 30\"X35\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0"/>
-      <c r="R31" s="0"/>
-      <c r="S31" s="0"/>
-      <c r="T31" s="0"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0" t="inlineStr">
-        <is>
-          <t>LEFT SIDE PANEL 4 DENT 30"X20"</t>
-        </is>
-      </c>
-      <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
-      <c r="AA31" s="0"/>
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL 4 DENT 30\"X20\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_41_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_41_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="284.68988764044946" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="27.28988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="61.389887640449444"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="105.38988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "RIGHT SIDE F/B NO.1 HOLE 2\"X2\" AT 2 PLS &amp; LEFT SIDE F/B NO.2 HOLE 2\"X2\"", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE F/B NO.1 HOLE 2"X2" AT 2 PLS &amp; LEFT SIDE F/B NO.2 HOLE 2"X2"</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1638,9 +1684,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SITE PANEL NO.3 PUSH IN 30\"X15\"", "", "", ""]</t>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SITE PANEL NO.3 PUSH IN 30"X15"</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1650,9 +1742,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL SCRACHED &amp; RUSTED", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL SCRACHED &amp; RUSTED</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1662,9 +1800,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL NO.1 HOLE 2\"X2\"&amp; LEFT SIDE PANEL NO.2 PIN HOLE 1\"X1\" 2 PLS", "", "", ""]</t>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>LEFT SIDE PANEL NO.1 HOLE 2"X2"&amp; LEFT SIDE PANEL NO.2 PIN HOLE 1"X1" 2 PLS</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1674,9 +1858,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL NO.3 HOLE 3\"X2\" 3 PLS", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>LEFT SIDE PANEL NO.3 HOLE 3"X2" 3 PLS</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1686,9 +1916,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR LOCK BAR BENT 1 PES", "", "", ""]</t>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR LOCK BAR BENT 1 PES</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1922,9 +2198,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "L/S PANEL 3 HOLE 1\"X1\"", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>L/S PANEL 3 HOLE 1"X1"</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1934,9 +2256,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BROKEN HOLE 60\"X48\" &amp; HOLE 6\"X6\" AT 4 PLS &amp; BROKEN DOWN 15\"X12\"", "", "", ""]</t>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>F/B BROKEN HOLE 60"X48" &amp; HOLE 6"X6" AT 4 PLS &amp; BROKEN DOWN 15"X12"</t>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1946,9 +2314,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BORD DIRTY BY SCRAP &amp; SCRATCH.", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BORD DIRTY BY SCRAP &amp; SCRATCH.</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2070,9 +2484,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "BOTH SIDE F/B HOLE 10\"X5,15\"X10\" &amp; 15\"X15\" AT 3PLS", "", "", ""]</t>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>BOTH SIDE F/B HOLE 10"X5,15"X10" &amp; 15"X15" AT 3PLS</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2082,9 +2542,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL SCRATCH BADLY", "", "", ""]</t>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X20" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y20" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL SCRATCH BADLY</t>
+        </is>
+      </c>
+      <c r="Z20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB20" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2094,9 +2600,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL NO.3 CUT 15\"X10 &amp; PUSH IN-PUSH OUT AT V/P", "", "", ""]</t>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y21" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL NO.3 CUT 15"X10 &amp; PUSH IN-PUSH OUT AT V/P</t>
+        </is>
+      </c>
+      <c r="Z21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2106,9 +2658,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET LOSE 20\"", "", "", ""]</t>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR BOTTOM GASKET LOSE 20"</t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2118,9 +2716,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL DENT AT V/P", "", "", ""]</t>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X23" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y23" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL DENT AT V/P</t>
+        </is>
+      </c>
+      <c r="Z23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB23" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2242,9 +2886,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INERNAL PANEL DIRTY", "", "", ""]</t>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>INERNAL PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2566,9 +3256,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; RUSTED &amp; CORROSION", "", "", ""]</t>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X29" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y29" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; RUSTED &amp; CORROSION</t>
+        </is>
+      </c>
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB29" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2578,9 +3314,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL 2 DENT 30\"X35\"", "", "", ""]</t>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL 2 DENT 30"X35"</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2590,9 +3372,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL 4 DENT 30\"X20\"", "", "", ""]</t>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X31" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y31" s="0" t="inlineStr">
+        <is>
+          <t>LEFT SIDE PANEL 4 DENT 30"X20"</t>
+        </is>
+      </c>
+      <c r="Z31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB31" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_41_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_41_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:8</t>
+          <t>Total number of containers:8</t>
         </is>
       </c>
     </row>
